--- a/fixtures/ac-test-aidants.xlsx
+++ b/fixtures/ac-test-aidants.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/math/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/math/Work/BetaGouv/AidantsConnect/demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEADE1C1-AE54-0D49-B491-970DF3A94522}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC9A8AC-7450-E845-8766-879CCB6DE3D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="5520" windowWidth="25600" windowHeight="15540" xr2:uid="{FBDBB464-2FEB-4045-B8E0-A370EFD2A9D9}"/>
+    <workbookView xWindow="6400" yWindow="3260" windowWidth="25600" windowHeight="15540" xr2:uid="{FBDBB464-2FEB-4045-B8E0-A370EFD2A9D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>first_name</t>
   </si>
@@ -88,6 +88,21 @@
   </si>
   <si>
     <t>Chargé d'accueil</t>
+  </si>
+  <si>
+    <t>metamatik@gmail.com</t>
+  </si>
+  <si>
+    <t>TEST ORGA</t>
+  </si>
+  <si>
+    <t>Développeur</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>Matik</t>
   </si>
 </sst>
 </file>
@@ -450,15 +465,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0B13CC-7A4E-3A4B-8CF0-A2C0CE42D18E}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="29.5" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
     <col min="5" max="5" width="38.1640625" customWidth="1"/>
     <col min="6" max="6" width="27.1640625" customWidth="1"/>
   </cols>
@@ -541,6 +557,26 @@
       </c>
       <c r="F4" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -551,6 +587,8 @@
     <hyperlink ref="D3" r:id="rId4" xr:uid="{89EB5335-40C6-9043-B8E0-F3103C439946}"/>
     <hyperlink ref="D4" r:id="rId5" xr:uid="{9F43CD4C-09A5-604C-8698-1E800F41A8C5}"/>
     <hyperlink ref="D2" r:id="rId6" xr:uid="{293A1331-426B-AA4E-B38F-80B101DE4CC0}"/>
+    <hyperlink ref="C5" r:id="rId7" xr:uid="{1F92F89B-81B3-FA4E-95F2-5873388F8DB7}"/>
+    <hyperlink ref="D5" r:id="rId8" xr:uid="{48C54907-0DAB-F14B-ACDA-80ABAE025302}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
